--- a/annotations/video_annotations.xlsx
+++ b/annotations/video_annotations.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciri\Documents\Data Science (FH)\Application Project\videos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ciri\Documents\git_projects\eye-contact-cnn\annotations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD20D8C-07A2-484C-8642-A5ABF0418FFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F25FAE59-2B4F-47C7-82D2-49B0041D3A71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{D18CB5B8-8DFA-4D60-A654-D100D5B78EFB}"/>
+    <workbookView xWindow="2280" yWindow="2280" windowWidth="14400" windowHeight="7360" xr2:uid="{D18CB5B8-8DFA-4D60-A654-D100D5B78EFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="14">
   <si>
     <t>Video</t>
   </si>
@@ -432,7 +432,7 @@
   <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -515,6 +515,12 @@
       <c r="B5">
         <v>4</v>
       </c>
+      <c r="C5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E5">
+        <v>20400</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -525,9 +531,6 @@
       </c>
       <c r="C6" t="s">
         <v>12</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
       </c>
       <c r="E6">
         <v>6300</v>
